--- a/tests/test1/d20/N, 0.3.xlsx
+++ b/tests/test1/d20/N, 0.3.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0004972999999921512</v>
+        <v>0.0003255999999964843</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003226999999981217</v>
+        <v>0.0002862000000050102</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003108999999881235</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0009378999999967164</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003243000000026086</v>
+        <v>0.0003059000000007472</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0009234999999989668</v>
+        <v>0.000294199999999023</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003396000000037702</v>
+        <v>0.0002917999999993981</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003583999999960952</v>
+        <v>0.0003143999999934977</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003648999999938951</v>
+        <v>0.0007684999999924003</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003260999999952219</v>
+        <v>0.0003292999999899848</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.000336899999993534</v>
+        <v>0.0003264000000058331</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0008028999999964981</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003223000000076581</v>
+        <v>0.0003259000000070955</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003347999999903095</v>
+        <v>0.0003051000000056092</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0003232000000110702</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0003147999999981721</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003188999999963471</v>
+        <v>0.0003620000000097434</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0002843000000041229</v>
+        <v>0.0003384999999980209</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005114000000077112</v>
+        <v>0.0003296000000005961</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003308000000004085</v>
+        <v>0.0002920000000017353</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0002943000000072971</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003145000000017717</v>
+        <v>0.0002859000000086098</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002923999999921989</v>
+        <v>0.000315600000007521</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003028999999941107</v>
+        <v>0.0002870999999942114</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003288000000054581</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002929000000051474</v>
+        <v>0.0003332000000000335</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002918999999934613</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002903000000031852</v>
+        <v>0.0002846000000005233</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.0003910000000075797</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0002944999999954234</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002901999999949112</v>
+        <v>0.0002923999999921989</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003240000000062082</v>
+        <v>0.0002880000000118343</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.000289999999992574</v>
+        <v>0.0003152999999969097</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.000294199999999023</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003152000000028465</v>
+        <v>0.0002903999999972484</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0003076999999933605</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002982000000031348</v>
+        <v>0.0003711000000095055</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0002937000000002854</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.00031389999999476</v>
+        <v>0.0009471999999988157</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0003111000000046715</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003582999999878211</v>
+        <v>0.000285899999994399</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0003018000000025722</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003038000000117336</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003172999999918602</v>
+        <v>0.0002984999999995352</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.000340199999996571</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003046000000068716</v>
+        <v>0.0002889000000010356</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003094000000061214</v>
+        <v>0.0002821000000068352</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0005878999999993084</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0003042000000021972</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003044000000045344</v>
+        <v>0.0002843000000041229</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.000295900000011784</v>
+        <v>0.0003046000000068716</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003116000000034091</v>
+        <v>0.0003298999999969965</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0002883000000082347</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002942999999930862</v>
+        <v>0.0003037999999975227</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.000324599999999009</v>
+        <v>0.0002909000000101969</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002927999999968733</v>
+        <v>0.0003150000000005093</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002892999999914991</v>
+        <v>0.0002849000000111346</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003251999999918098</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003188999999963471</v>
+        <v>0.0003152000000028465</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0002894999999938364</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.000302399999995373</v>
+        <v>0.0002858000000003358</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003111000000046715</v>
+        <v>0.001224799999988591</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003798000000045931</v>
+        <v>0.0003158000000098582</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0004263000000008788</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.000286799999997811</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000294099999990749</v>
+        <v>0.0003188999999963471</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0002902999999889744</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002871999999882746</v>
+        <v>0.000289199999997436</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003286000000031208</v>
+        <v>0.0003025999999977103</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002925999999945361</v>
+        <v>0.00028110000000936</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002900000000067848</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0002970999999973856</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0003054000000020096</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002951000000024351</v>
+        <v>0.0002939000000026226</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003306999999921345</v>
+        <v>0.0003075000000052341</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0002896000000021104</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002893999999997732</v>
+        <v>0.0002829999999960364</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003272000000009712</v>
+        <v>0.0004916999999977634</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0002966999999927111</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0002853999999956613</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003223000000076581</v>
+        <v>0.0002984000000054721</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003133999999960224</v>
+        <v>0.0003172000000120079</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002900000000067848</v>
+        <v>0.0002976999999901864</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.000396200000011504</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003257999999988215</v>
+        <v>0.0003119999999938727</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002930999999932737</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0002913999999947237</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0004014000000012174</v>
+        <v>0.00128890000000581</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003238999999979342</v>
+        <v>0.0003044999999985976</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.000392100000013329</v>
+        <v>0.0002915999999970609</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0002833000000066477</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003213000000101829</v>
+        <v>0.000309799999996585</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.0002842999999899121</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.0002939999999966858</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003152999999969097</v>
+        <v>0.0003275000000115824</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003105999999917231</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.3.xlsx
+++ b/tests/test1/d20/N, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003255999999964843</v>
+        <v>0.0004848000000094999</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002862000000050102</v>
+        <v>0.0003190000000046211</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.00078629999998725</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0009378999999967164</v>
+        <v>0.0003289999999935844</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003059000000007472</v>
+        <v>0.0003063000000054217</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0002978999999925236</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0003209999999995716</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0003115999999891983</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0007684999999924003</v>
+        <v>0.0002898999999985108</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003292999999899848</v>
+        <v>0.0003329999999976962</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003264000000058331</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0008325000000013461</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0008028999999964981</v>
+        <v>0.0003377999999969461</v>
       </c>
     </row>
     <row r="15">
@@ -1214,7 +1214,7 @@
         <v>145.3625540108592</v>
       </c>
       <c r="H15" t="n">
-        <v>5.737352287453399</v>
+        <v>5.7373522874534</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1232,7 +1232,7 @@
         <v>0.08695369831103342</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3749614323028527</v>
+        <v>0.3749614323028523</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003259000000070955</v>
+        <v>0.0003432000000032076</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003051000000056092</v>
+        <v>0.000340199999996571</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003232000000110702</v>
+        <v>0.0003155999999933101</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003147999999981721</v>
+        <v>0.0005365000000097098</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003620000000097434</v>
+        <v>0.0003266999999880227</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003384999999980209</v>
+        <v>0.0003213999999900352</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003296000000005961</v>
+        <v>0.0004849999999976262</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0004078000000049542</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.000336099999998396</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002943000000072971</v>
+        <v>0.0003093999999919106</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002859000000086098</v>
+        <v>0.0003141000000113081</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.000315600000007521</v>
+        <v>0.0002939999999966858</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002870999999942114</v>
+        <v>0.000312999999991348</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0003568000000058191</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003332000000000335</v>
+        <v>0.0003087999999991098</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002843999999981861</v>
+        <v>0.0003033999999928483</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002846000000005233</v>
+        <v>0.0006835000000080527</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003910000000075797</v>
+        <v>0.0003155000000134578</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002944999999954234</v>
+        <v>0.0003211000000078457</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002923999999921989</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002880000000118343</v>
+        <v>0.0003198999999938223</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003152999999969097</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0002915999999970609</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002903999999972484</v>
+        <v>0.0003220999999911101</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003076999999933605</v>
+        <v>0.0003116999999974723</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003711000000095055</v>
+        <v>0.0003089000000073838</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.0003340999999892347</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0009471999999988157</v>
+        <v>0.0003133999999960224</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003111000000046715</v>
+        <v>0.0002999000000016849</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.0008850999999907572</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0003166000000049962</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0003109999999963975</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0003274000000033084</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.000340199999996571</v>
+        <v>0.0002980000000007976</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.0003091999999895734</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002821000000068352</v>
+        <v>0.0003352000000091948</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0002979000000067344</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0003089000000073838</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002843000000041229</v>
+        <v>0.0003456999999968957</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003046000000068716</v>
+        <v>0.0003084000000086462</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.0003053000000079464</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002883000000082347</v>
+        <v>0.0004842999999965514</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.0003216000000065833</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002909000000101969</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0003086999999908357</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002849000000111346</v>
+        <v>0.0006593000000094662</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002812999999974863</v>
+        <v>0.000500500000001125</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003152000000028465</v>
+        <v>0.0006492999999920812</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002894999999938364</v>
+        <v>0.0005524999999977354</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002858000000003358</v>
+        <v>0.0005024999999960755</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.001224799999988591</v>
+        <v>0.0003456000000028325</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003158000000098582</v>
+        <v>0.0003444000000030201</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002812999999974863</v>
+        <v>0.001753500000006625</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.000286799999997811</v>
+        <v>0.0006238999999936823</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003188999999963471</v>
+        <v>0.0003618000000074062</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002902999999889744</v>
+        <v>0.0004095000000035043</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0005345000000005484</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0005469000000033475</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.00028110000000936</v>
+        <v>0.0005721999999934724</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0003528000000017073</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0005637999999947851</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0004758999999978641</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002939000000026226</v>
+        <v>0.0005086999999974751</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0003702000000060934</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003075000000052341</v>
+        <v>0.0004251000000010663</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002896000000021104</v>
+        <v>0.0004571000000055392</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002829999999960364</v>
+        <v>0.0003504999999961456</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0004916999999977634</v>
+        <v>0.0005541000000022223</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002966999999927111</v>
+        <v>0.0005330999999983987</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002853999999956613</v>
+        <v>0.0004498000000126012</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002984000000054721</v>
+        <v>0.0005088999999998123</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003172000000120079</v>
+        <v>0.0005093999999985499</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002976999999901864</v>
+        <v>0.0003675000000100681</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002831999999983736</v>
+        <v>0.0003420999999974583</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003119999999938727</v>
+        <v>0.0007358000000010634</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0006327999999911071</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002913999999947237</v>
+        <v>0.0003877999999986059</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.00128890000000581</v>
+        <v>0.0003444000000030201</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0005392000000057351</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0005892000000073949</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002833000000066477</v>
+        <v>0.0006295999999963442</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000309799999996585</v>
+        <v>0.001135300000001394</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002842999999899121</v>
+        <v>0.0006039000000015449</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.0003650000000021691</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003275000000115824</v>
+        <v>0.0005609000000106334</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002843999999981861</v>
+        <v>0.001412000000001967</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.3.xlsx
+++ b/tests/test1/d20/N, 0.3.xlsx
@@ -532,13 +532,13 @@
         <v>359.4707842962097</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73980165406178</v>
+        <v>19.73980165406726</v>
       </c>
       <c r="G2" t="n">
-        <v>95.99280476716646</v>
+        <v>95.9928047671666</v>
       </c>
       <c r="H2" t="n">
-        <v>11.93691560599811</v>
+        <v>11.93691560600246</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>44.27051543087501</v>
+        <v>44.2705154308757</v>
       </c>
       <c r="L2" t="n">
-        <v>21.82395723865492</v>
+        <v>21.82395723866201</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1166027195410007</v>
+        <v>0.1166027195409305</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1988330858387964</v>
+        <v>0.1988330858401082</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0004848000000094999</v>
+        <v>0.0002429000000176984</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.512696390901</v>
       </c>
       <c r="F3" t="n">
-        <v>18.96868997049763</v>
+        <v>18.96868997049912</v>
       </c>
       <c r="G3" t="n">
-        <v>72.23412815908128</v>
+        <v>72.2341281590827</v>
       </c>
       <c r="H3" t="n">
-        <v>11.63812780566133</v>
+        <v>11.6381278056623</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>34.76713742283871</v>
+        <v>34.76713742283899</v>
       </c>
       <c r="L3" t="n">
-        <v>25.09260781767541</v>
+        <v>25.09260781767735</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1190096876367201</v>
+        <v>0.1190096876367026</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1531029105787408</v>
+        <v>0.1531029105783001</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003190000000046211</v>
+        <v>0.0002090000000123382</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.1250273542216417</v>
       </c>
       <c r="F4" t="n">
-        <v>19.45286154437043</v>
+        <v>19.45286154437002</v>
       </c>
       <c r="G4" t="n">
-        <v>90.03855160863863</v>
+        <v>90.03855160864514</v>
       </c>
       <c r="H4" t="n">
-        <v>2.860265122716205</v>
+        <v>2.860265122715997</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -651,16 +651,16 @@
         <v>18.86935545809921</v>
       </c>
       <c r="K4" t="n">
-        <v>15.42633221823631</v>
+        <v>15.42633221823622</v>
       </c>
       <c r="L4" t="n">
-        <v>17.46328872190742</v>
+        <v>17.46328872190659</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09988143634812734</v>
+        <v>0.09988143634813425</v>
       </c>
       <c r="N4" t="n">
-        <v>0.788643753236305</v>
+        <v>0.7886437532367274</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.00078629999998725</v>
+        <v>0.0001994000000138385</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.4634114579709</v>
       </c>
       <c r="F5" t="n">
-        <v>19.40371875741907</v>
+        <v>19.40371875742124</v>
       </c>
       <c r="G5" t="n">
-        <v>96.14390677464506</v>
+        <v>96.14390677464496</v>
       </c>
       <c r="H5" t="n">
-        <v>11.58469235492936</v>
+        <v>11.5846923549311</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>44.07116475099397</v>
+        <v>44.07116475099426</v>
       </c>
       <c r="L5" t="n">
-        <v>21.29320925231591</v>
+        <v>21.29320925231876</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1365806166889793</v>
+        <v>0.1365806166889454</v>
       </c>
       <c r="N5" t="n">
-        <v>0.142723242712513</v>
+        <v>0.1427232427130449</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003289999999935844</v>
+        <v>0.0001949999999908414</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9848314878572</v>
       </c>
       <c r="F6" t="n">
-        <v>19.63777993900923</v>
+        <v>19.63777993900939</v>
       </c>
       <c r="G6" t="n">
-        <v>174.5255206499057</v>
+        <v>174.5255206499052</v>
       </c>
       <c r="H6" t="n">
-        <v>9.433423116411024</v>
+        <v>9.433423116411042</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>21.31937902438951</v>
+        <v>21.31937902438961</v>
       </c>
       <c r="L6" t="n">
-        <v>6.175545401562073</v>
+        <v>6.17554540156224</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08791988051512101</v>
+        <v>0.08791988051511782</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1695551068925527</v>
+        <v>0.1695551068924656</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003063000000054217</v>
+        <v>0.0002384999999947013</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.8676317539345</v>
       </c>
       <c r="F7" t="n">
-        <v>18.92268755865966</v>
+        <v>18.92268755865937</v>
       </c>
       <c r="G7" t="n">
-        <v>39.24334196754953</v>
+        <v>39.2433419675504</v>
       </c>
       <c r="H7" t="n">
-        <v>12.85520573576009</v>
+        <v>12.85520573575922</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -807,16 +807,16 @@
         <v>31.91172483743855</v>
       </c>
       <c r="K7" t="n">
-        <v>21.07095095326037</v>
+        <v>21.07095095326038</v>
       </c>
       <c r="L7" t="n">
-        <v>30.27788318753889</v>
+        <v>30.27788318753755</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09388440311930611</v>
+        <v>0.09388440311931444</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2434847958009996</v>
+        <v>0.2434847958012091</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.09353510204625504</v>
       </c>
       <c r="F8" t="n">
-        <v>19.39775692699241</v>
+        <v>19.39775692699219</v>
       </c>
       <c r="G8" t="n">
-        <v>163.1685289353086</v>
+        <v>163.1685289353079</v>
       </c>
       <c r="H8" t="n">
-        <v>6.9517324515138</v>
+        <v>6.951732451513553</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>22.3549540204649</v>
+        <v>22.35495402046474</v>
       </c>
       <c r="L8" t="n">
-        <v>9.511492267794488</v>
+        <v>9.51149226779458</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08740619752607433</v>
+        <v>0.08740619752607717</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2489870155940107</v>
+        <v>0.2489870155941089</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.0001845000000173513</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.4928422888599</v>
       </c>
       <c r="F9" t="n">
-        <v>17.36506984542535</v>
+        <v>17.36506984542581</v>
       </c>
       <c r="G9" t="n">
-        <v>12.02863548552168</v>
+        <v>12.02863548552187</v>
       </c>
       <c r="H9" t="n">
-        <v>14.04930753684464</v>
+        <v>14.04930753684547</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>8.251893583696935</v>
+        <v>8.251893583697024</v>
       </c>
       <c r="L9" t="n">
-        <v>31.56382040539935</v>
+        <v>31.56382040540079</v>
       </c>
       <c r="M9" t="n">
-        <v>0.12007517202064</v>
+        <v>0.1200751720206292</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4501157038798679</v>
+        <v>0.4501157038799349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003115999999891983</v>
+        <v>0.0001845000000173513</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9726385850141</v>
       </c>
       <c r="F10" t="n">
-        <v>18.97755777090168</v>
+        <v>18.97755777090658</v>
       </c>
       <c r="G10" t="n">
-        <v>157.5196745077027</v>
+        <v>157.5196745077006</v>
       </c>
       <c r="H10" t="n">
-        <v>13.71671633325065</v>
+        <v>13.716716333255</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>81.21652089799159</v>
+        <v>81.21652089799221</v>
       </c>
       <c r="L10" t="n">
-        <v>7.54362959912187</v>
+        <v>7.543629599124436</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1066064263036966</v>
+        <v>0.106606426303633</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3124897692215385</v>
+        <v>0.3124897692200549</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.0001836000000139393</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9996674335863</v>
       </c>
       <c r="F11" t="n">
-        <v>19.53436627551898</v>
+        <v>19.53436627551926</v>
       </c>
       <c r="G11" t="n">
-        <v>1.064025353166931</v>
+        <v>1.064025353166944</v>
       </c>
       <c r="H11" t="n">
-        <v>7.818454354881045</v>
+        <v>7.81845435488066</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>2.926811124963466</v>
+        <v>2.926811124963479</v>
       </c>
       <c r="L11" t="n">
-        <v>26.33288056167186</v>
+        <v>26.33288056167168</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09911211037507368</v>
+        <v>0.09911211037507357</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5077267807800356</v>
+        <v>0.507726780780153</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003329999999976962</v>
+        <v>0.0002417999999977383</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.6005240487611</v>
       </c>
       <c r="F12" t="n">
-        <v>19.31450359640844</v>
+        <v>19.31450359640858</v>
       </c>
       <c r="G12" t="n">
-        <v>116.1199352697039</v>
+        <v>116.1199352697053</v>
       </c>
       <c r="H12" t="n">
-        <v>2.705614108696747</v>
+        <v>2.7056141086968</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>14.50810703471013</v>
+        <v>14.50810703471017</v>
       </c>
       <c r="L12" t="n">
-        <v>15.77119934270983</v>
+        <v>15.77119934270988</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09814852930320675</v>
+        <v>0.09814852930320545</v>
       </c>
       <c r="N12" t="n">
-        <v>1.082718800769945</v>
+        <v>1.08271880076989</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0001926999999852796</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.4751635776084</v>
       </c>
       <c r="F13" t="n">
-        <v>17.88314684701986</v>
+        <v>17.88314684701988</v>
       </c>
       <c r="G13" t="n">
-        <v>20.48021759832325</v>
+        <v>20.48021759832255</v>
       </c>
       <c r="H13" t="n">
-        <v>5.580038259353931</v>
+        <v>5.580038259354316</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>8.839209249986471</v>
+        <v>8.839209249986496</v>
       </c>
       <c r="L13" t="n">
-        <v>21.797724985295</v>
+        <v>21.79772498529548</v>
       </c>
       <c r="M13" t="n">
-        <v>0.123049692887562</v>
+        <v>0.1230496928875587</v>
       </c>
       <c r="N13" t="n">
-        <v>2.21073663208404</v>
+        <v>2.210736632084387</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0008325000000013461</v>
+        <v>0.0001905000000022028</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.858104250553</v>
       </c>
       <c r="F14" t="n">
-        <v>18.99392883719663</v>
+        <v>18.99392883719637</v>
       </c>
       <c r="G14" t="n">
-        <v>26.66343420670185</v>
+        <v>26.66343420670177</v>
       </c>
       <c r="H14" t="n">
-        <v>11.88137332746713</v>
+        <v>11.88137332746689</v>
       </c>
       <c r="I14" t="n">
         <v>14.58896536332175</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>14.48310386148388</v>
+        <v>14.48310386148385</v>
       </c>
       <c r="L14" t="n">
-        <v>30.07469955072477</v>
+        <v>30.07469955072424</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1002204059187818</v>
+        <v>0.1002204059187851</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1035363844727228</v>
+        <v>0.1035363844727087</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003377999999969461</v>
+        <v>0.000186600000006365</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.213717198615172</v>
       </c>
       <c r="F15" t="n">
-        <v>19.26524128111669</v>
+        <v>19.26524128111661</v>
       </c>
       <c r="G15" t="n">
-        <v>145.3625540108592</v>
+        <v>145.3625540108586</v>
       </c>
       <c r="H15" t="n">
-        <v>5.7373522874534</v>
+        <v>5.737352287453318</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>25.14347851537755</v>
+        <v>25.14347851537751</v>
       </c>
       <c r="L15" t="n">
-        <v>12.13387890529828</v>
+        <v>12.13387890529833</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08695369831103342</v>
+        <v>0.08695369831103399</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3749614323028523</v>
+        <v>0.3749614323028729</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003432000000032076</v>
+        <v>0.000183999999990192</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.5345982666241</v>
       </c>
       <c r="F16" t="n">
-        <v>19.30186990245407</v>
+        <v>19.30186990245574</v>
       </c>
       <c r="G16" t="n">
-        <v>89.7119033161873</v>
+        <v>89.71190331618719</v>
       </c>
       <c r="H16" t="n">
-        <v>12.33955309414694</v>
+        <v>12.33955309414839</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>43.35022055616105</v>
+        <v>43.35022055616123</v>
       </c>
       <c r="L16" t="n">
-        <v>23.04728561623315</v>
+        <v>23.04728561623557</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1275386870863107</v>
+        <v>0.1275386870862846</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1248247004113124</v>
+        <v>0.1248247004113843</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.000340199999996571</v>
+        <v>0.0002312000000017633</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.09369854446306079</v>
       </c>
       <c r="F17" t="n">
-        <v>19.41640662196552</v>
+        <v>19.41640662196458</v>
       </c>
       <c r="G17" t="n">
-        <v>156.1815241617832</v>
+        <v>156.1815241617831</v>
       </c>
       <c r="H17" t="n">
-        <v>5.150890265565452</v>
+        <v>5.150890265564979</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1327,16 +1327,16 @@
         <v>12.54421959985167</v>
       </c>
       <c r="K17" t="n">
-        <v>18.35736968704125</v>
+        <v>18.35736968704087</v>
       </c>
       <c r="L17" t="n">
-        <v>11.7429881674353</v>
+        <v>11.74298816743484</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09482464412474884</v>
+        <v>0.09482464412476126</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2463553269307031</v>
+        <v>0.2463553269306247</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003155999999933101</v>
+        <v>0.0001906999999903292</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9616153836598</v>
       </c>
       <c r="F18" t="n">
-        <v>18.82190031906468</v>
+        <v>18.82190031906556</v>
       </c>
       <c r="G18" t="n">
-        <v>39.67350477769241</v>
+        <v>39.67350477769326</v>
       </c>
       <c r="H18" t="n">
-        <v>8.547554565876373</v>
+        <v>8.547554565876819</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>17.73166183910855</v>
+        <v>17.73166183910871</v>
       </c>
       <c r="L18" t="n">
-        <v>25.30237588972868</v>
+        <v>25.30237588972995</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08074954360069993</v>
+        <v>0.08074954360069277</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3652549389188191</v>
+        <v>0.3652549389185573</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005365000000097098</v>
+        <v>0.0001849000000220258</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9171202329936</v>
       </c>
       <c r="F19" t="n">
-        <v>18.88192967925144</v>
+        <v>18.88192967925163</v>
       </c>
       <c r="G19" t="n">
-        <v>51.87418680414591</v>
+        <v>51.87418680414581</v>
       </c>
       <c r="H19" t="n">
-        <v>8.874163699705168</v>
+        <v>8.87416369970534</v>
       </c>
       <c r="I19" t="n">
         <v>22.80758777377703</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>22.62739939111914</v>
+        <v>22.62739939111917</v>
       </c>
       <c r="L19" t="n">
-        <v>24.74483567145749</v>
+        <v>24.74483567145786</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0985419286634453</v>
+        <v>0.09854192866344255</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2976865073484933</v>
+        <v>0.2976865073484193</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003266999999880227</v>
+        <v>0.0001983999999879416</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9761714668581</v>
       </c>
       <c r="F20" t="n">
-        <v>19.14296246514343</v>
+        <v>19.14296246514759</v>
       </c>
       <c r="G20" t="n">
-        <v>117.3914945127239</v>
+        <v>117.391494512724</v>
       </c>
       <c r="H20" t="n">
-        <v>8.547035267934421</v>
+        <v>8.547035267936986</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>41.0125375457562</v>
+        <v>41.01253754575716</v>
       </c>
       <c r="L20" t="n">
-        <v>15.64864776216696</v>
+        <v>15.64864776217081</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09762876484206975</v>
+        <v>0.09762876484202304</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2668099332388343</v>
+        <v>0.2668099332374976</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003213999999900352</v>
+        <v>0.000185000000016089</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9336990211954</v>
       </c>
       <c r="F21" t="n">
-        <v>18.72179933868496</v>
+        <v>18.7217993386853</v>
       </c>
       <c r="G21" t="n">
-        <v>16.77445791591034</v>
+        <v>16.77445791591056</v>
       </c>
       <c r="H21" t="n">
-        <v>11.53619881965529</v>
+        <v>11.53619881965555</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>9.93781522995141</v>
+        <v>9.937815229951461</v>
       </c>
       <c r="L21" t="n">
-        <v>29.80703593184647</v>
+        <v>29.80703593184711</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0940214514260567</v>
+        <v>0.09402145142605262</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2828992511060884</v>
+        <v>0.2828992511059884</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0004849999999976262</v>
+        <v>0.0002345999999988635</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.7348320662148</v>
       </c>
       <c r="F22" t="n">
-        <v>19.08056174368353</v>
+        <v>19.080561743688</v>
       </c>
       <c r="G22" t="n">
         <v>104.7458373773001</v>
       </c>
       <c r="H22" t="n">
-        <v>13.19425740591651</v>
+        <v>13.19425740592049</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>52.8212781369238</v>
+        <v>52.82127813692435</v>
       </c>
       <c r="L22" t="n">
-        <v>20.57570713070541</v>
+        <v>20.57570713071103</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1005399729433815</v>
+        <v>0.10053997294333</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2375733432184481</v>
+        <v>0.2375733432171502</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0004078000000049542</v>
+        <v>0.0001847999999995409</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01558927485166555</v>
       </c>
       <c r="F23" t="n">
-        <v>19.75551163781828</v>
+        <v>19.75551163781812</v>
       </c>
       <c r="G23" t="n">
-        <v>8.678718026434266</v>
+        <v>8.678718026433897</v>
       </c>
       <c r="H23" t="n">
-        <v>5.772060367759814</v>
+        <v>5.772060367760267</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>5.290164322789344</v>
+        <v>5.290164322789356</v>
       </c>
       <c r="L23" t="n">
-        <v>24.08891855992017</v>
+        <v>24.08891855992054</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09574779568386631</v>
+        <v>0.09574779568386518</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3624335112422802</v>
+        <v>0.3624335112420828</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000336099999998396</v>
+        <v>0.0002759000000196465</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.02758497595955204</v>
       </c>
       <c r="F24" t="n">
-        <v>19.22359004655523</v>
+        <v>19.22359004655608</v>
       </c>
       <c r="G24" t="n">
-        <v>38.41814439939225</v>
+        <v>38.41814439939276</v>
       </c>
       <c r="H24" t="n">
-        <v>7.80724535571628</v>
+        <v>7.80724535571679</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1691,16 +1691,16 @@
         <v>26.83511193928066</v>
       </c>
       <c r="K24" t="n">
-        <v>16.2969569028472</v>
+        <v>16.29695690284736</v>
       </c>
       <c r="L24" t="n">
-        <v>24.95005491353816</v>
+        <v>24.95005491353952</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1053919336913197</v>
+        <v>0.1053919336913101</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4484558454438722</v>
+        <v>0.4484558454436198</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003093999999919106</v>
+        <v>0.000214299999981904</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.799903583094</v>
       </c>
       <c r="F25" t="n">
-        <v>18.8777724167695</v>
+        <v>18.8777724167633</v>
       </c>
       <c r="G25" t="n">
-        <v>92.2206758222393</v>
+        <v>92.22067582223812</v>
       </c>
       <c r="H25" t="n">
-        <v>13.58796238339153</v>
+        <v>13.58796238338589</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>48.0648159859964</v>
+        <v>48.06481598599559</v>
       </c>
       <c r="L25" t="n">
-        <v>23.38729063892598</v>
+        <v>23.38729063891723</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09274746675466521</v>
+        <v>0.09274746675473135</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2719965996502596</v>
+        <v>0.2719965996520687</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003141000000113081</v>
+        <v>0.0002152000000137377</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.6012363482052</v>
       </c>
       <c r="F26" t="n">
-        <v>20.54365302877826</v>
+        <v>20.54365302877886</v>
       </c>
       <c r="G26" t="n">
-        <v>170.2214173026689</v>
+        <v>170.2214173026688</v>
       </c>
       <c r="H26" t="n">
-        <v>11.38851548313181</v>
+        <v>11.38851548313227</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>36.90458032969527</v>
+        <v>36.90458032969587</v>
       </c>
       <c r="L26" t="n">
-        <v>5.576438583132507</v>
+        <v>5.576438583132618</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1030354265227483</v>
+        <v>0.1030354265227391</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3798185567227478</v>
+        <v>0.3798185567225384</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.0002364999999997508</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9315180731002</v>
       </c>
       <c r="F27" t="n">
-        <v>19.71865172070849</v>
+        <v>19.71865172071227</v>
       </c>
       <c r="G27" t="n">
-        <v>156.4136186503139</v>
+        <v>156.4136186503112</v>
       </c>
       <c r="H27" t="n">
-        <v>9.797258649523917</v>
+        <v>9.797258649526229</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>42.7588104557254</v>
+        <v>42.7588104557267</v>
       </c>
       <c r="L27" t="n">
-        <v>8.618345576211668</v>
+        <v>8.618345576213841</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1007806331226844</v>
+        <v>0.1007806331226331</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09919137827621852</v>
+        <v>0.09919137827496449</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.000312999999991348</v>
+        <v>0.0001953999999955158</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.941202036502</v>
       </c>
       <c r="F28" t="n">
-        <v>19.05549284824119</v>
+        <v>19.05549284823938</v>
       </c>
       <c r="G28" t="n">
-        <v>55.05027079614374</v>
+        <v>55.05027079614386</v>
       </c>
       <c r="H28" t="n">
-        <v>8.683039966646307</v>
+        <v>8.683039966644952</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>23.38829898519596</v>
+        <v>23.38829898519568</v>
       </c>
       <c r="L28" t="n">
-        <v>24.41405744206733</v>
+        <v>24.41405744206428</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09257442962287571</v>
+        <v>0.09257442962289704</v>
       </c>
       <c r="N28" t="n">
-        <v>0.277009452584825</v>
+        <v>0.2770094525854573</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003568000000058191</v>
+        <v>0.0001860000000135642</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.6143183754303</v>
       </c>
       <c r="F29" t="n">
-        <v>18.98369164246442</v>
+        <v>18.98369164246615</v>
       </c>
       <c r="G29" t="n">
-        <v>74.72657378286821</v>
+        <v>74.72657378286857</v>
       </c>
       <c r="H29" t="n">
-        <v>12.53420774960539</v>
+        <v>12.53420774960688</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>37.4172392354288</v>
+        <v>37.41723923542902</v>
       </c>
       <c r="L29" t="n">
-        <v>25.595923603497</v>
+        <v>25.59592360349974</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1116238464896064</v>
+        <v>0.111623846489583</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1770470834577138</v>
+        <v>0.1770470834571828</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0001850999999817304</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.866100286639</v>
       </c>
       <c r="F30" t="n">
-        <v>19.51560982831512</v>
+        <v>19.51560982831209</v>
       </c>
       <c r="G30" t="n">
-        <v>130.379156940321</v>
+        <v>130.379156940323</v>
       </c>
       <c r="H30" t="n">
-        <v>9.45949424106094</v>
+        <v>9.459494241058982</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>45.67256834730877</v>
+        <v>45.67256834730825</v>
       </c>
       <c r="L30" t="n">
-        <v>13.6603479357984</v>
+        <v>13.66034793579566</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09184535259148245</v>
+        <v>0.09184535259151376</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1493112201076774</v>
+        <v>0.1493112201085846</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003033999999928483</v>
+        <v>0.0001844000000232882</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.1252446378913628</v>
       </c>
       <c r="F31" t="n">
-        <v>19.40785380480972</v>
+        <v>19.40785380481066</v>
       </c>
       <c r="G31" t="n">
-        <v>158.2668861566426</v>
+        <v>158.2668861566417</v>
       </c>
       <c r="H31" t="n">
-        <v>6.358582271197094</v>
+        <v>6.358582271197508</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>22.59531418324737</v>
+        <v>22.59531418324775</v>
       </c>
       <c r="L31" t="n">
-        <v>10.51026856064328</v>
+        <v>10.51026856064389</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09797506281816099</v>
+        <v>0.09797506281814547</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2620022059870216</v>
+        <v>0.2620022059866544</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0006835000000080527</v>
+        <v>0.000235200000020086</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.3792157994329175</v>
       </c>
       <c r="F32" t="n">
-        <v>18.33780730893466</v>
+        <v>18.33780730893469</v>
       </c>
       <c r="G32" t="n">
-        <v>121.8838115413461</v>
+        <v>121.8838115413443</v>
       </c>
       <c r="H32" t="n">
-        <v>6.546265113731943</v>
+        <v>6.546265113731942</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>34.53042504771997</v>
+        <v>34.53042504771986</v>
       </c>
       <c r="L32" t="n">
-        <v>14.04638910635587</v>
+        <v>14.04638910635613</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1071513132340432</v>
+        <v>0.1071513132340418</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8004210725922916</v>
+        <v>0.800421072592247</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003155000000134578</v>
+        <v>0.0001875000000097771</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.124427164275475</v>
       </c>
       <c r="F33" t="n">
-        <v>18.32991158437092</v>
+        <v>18.32991158436909</v>
       </c>
       <c r="G33" t="n">
-        <v>50.99753135762673</v>
+        <v>50.99753135762575</v>
       </c>
       <c r="H33" t="n">
-        <v>12.81905031313956</v>
+        <v>12.81905031313804</v>
       </c>
       <c r="I33" t="n">
         <v>27.6517349691609</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>27.40208679412767</v>
+        <v>27.40208679412738</v>
       </c>
       <c r="L33" t="n">
-        <v>28.60419918811324</v>
+        <v>28.60419918811005</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1002568819724869</v>
+        <v>0.100256881972507</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5341548990064334</v>
+        <v>0.5341548990069588</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003211000000078457</v>
+        <v>0.0002019000000075266</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1046683352968264</v>
       </c>
       <c r="F34" t="n">
-        <v>19.13774000820446</v>
+        <v>19.13774000820506</v>
       </c>
       <c r="G34" t="n">
-        <v>157.1317215867672</v>
+        <v>157.1317215867666</v>
       </c>
       <c r="H34" t="n">
-        <v>7.209765609871811</v>
+        <v>7.209765609872097</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>28.11307355592449</v>
+        <v>28.11307355592472</v>
       </c>
       <c r="L34" t="n">
-        <v>9.693263197170952</v>
+        <v>9.693263197171335</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09903973877543115</v>
+        <v>0.09903973877542041</v>
       </c>
       <c r="N34" t="n">
-        <v>0.355271350691787</v>
+        <v>0.3552713506915526</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0002032999999812546</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.09565605153243364</v>
       </c>
       <c r="F35" t="n">
-        <v>19.02121349054353</v>
+        <v>19.02121349054459</v>
       </c>
       <c r="G35" t="n">
-        <v>45.7963144875206</v>
+        <v>45.79631448751957</v>
       </c>
       <c r="H35" t="n">
-        <v>7.347013068700041</v>
+        <v>7.347013068701028</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>18.44673312923704</v>
+        <v>18.44673312923721</v>
       </c>
       <c r="L35" t="n">
-        <v>23.77323933417695</v>
+        <v>23.77323933417908</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09130163043105664</v>
+        <v>0.09130163043104239</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5172695659251637</v>
+        <v>0.517269565924664</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.0002029000000050019</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9268494698117</v>
       </c>
       <c r="F36" t="n">
-        <v>19.07526481710864</v>
+        <v>19.07526481710831</v>
       </c>
       <c r="G36" t="n">
-        <v>6.61766765293693</v>
+        <v>6.617667652936714</v>
       </c>
       <c r="H36" t="n">
-        <v>11.56320515684403</v>
+        <v>11.56320515684401</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2315,16 +2315,16 @@
         <v>32.24479883815602</v>
       </c>
       <c r="K36" t="n">
-        <v>5.186729674591933</v>
+        <v>5.186729674591895</v>
       </c>
       <c r="L36" t="n">
-        <v>30.36662233876862</v>
+        <v>30.36662233876827</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09136620718213459</v>
+        <v>0.09136620718213695</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2879999163029899</v>
+        <v>0.2879999163030253</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002506000000153108</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.5669210130263596</v>
       </c>
       <c r="F37" t="n">
-        <v>18.3883138731049</v>
+        <v>18.38831387310647</v>
       </c>
       <c r="G37" t="n">
-        <v>94.56883012581029</v>
+        <v>94.56883012580832</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127794931316189</v>
+        <v>5.12779493131696</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2367,16 +2367,16 @@
         <v>20.58139294425217</v>
       </c>
       <c r="K37" t="n">
-        <v>26.10049625287449</v>
+        <v>26.10049625287484</v>
       </c>
       <c r="L37" t="n">
-        <v>17.01613732710981</v>
+        <v>17.01613732711176</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1317643252813008</v>
+        <v>0.1317643252812738</v>
       </c>
       <c r="N37" t="n">
-        <v>1.24531391124076</v>
+        <v>1.245313911240173</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0001948999999967782</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.7970760202737</v>
       </c>
       <c r="F38" t="n">
-        <v>19.44912748026898</v>
+        <v>19.44912748027064</v>
       </c>
       <c r="G38" t="n">
-        <v>129.9645192960244</v>
+        <v>129.9645192960237</v>
       </c>
       <c r="H38" t="n">
-        <v>9.91083948677862</v>
+        <v>9.91083948677975</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>48.01768292645223</v>
+        <v>48.01768292645256</v>
       </c>
       <c r="L38" t="n">
-        <v>13.74434397235854</v>
+        <v>13.74434397235998</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1103344317279274</v>
+        <v>0.1103344317279071</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1678310954454321</v>
+        <v>0.1678310954449237</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003220999999911101</v>
+        <v>0.0001835000000198761</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01633908370124642</v>
       </c>
       <c r="F39" t="n">
-        <v>19.63902364122918</v>
+        <v>19.63902364122905</v>
       </c>
       <c r="G39" t="n">
-        <v>170.5306280505933</v>
+        <v>170.5306280505939</v>
       </c>
       <c r="H39" t="n">
-        <v>8.435730365651917</v>
+        <v>8.435730365651983</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>21.98634986618698</v>
+        <v>21.98634986618694</v>
       </c>
       <c r="L39" t="n">
-        <v>7.589696701263919</v>
+        <v>7.589696701263669</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09166701405139653</v>
+        <v>0.09166701405139918</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1458243174377915</v>
+        <v>0.1458243174378489</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003116999999974723</v>
+        <v>0.0001845000000173513</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.697388305565</v>
       </c>
       <c r="F40" t="n">
-        <v>18.93217007541804</v>
+        <v>18.93217007541722</v>
       </c>
       <c r="G40" t="n">
-        <v>67.95365053032167</v>
+        <v>67.95365053032118</v>
       </c>
       <c r="H40" t="n">
-        <v>12.87165983894088</v>
+        <v>12.87165983894023</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>34.83127818231625</v>
+        <v>34.83127818231613</v>
       </c>
       <c r="L40" t="n">
-        <v>26.93991979734933</v>
+        <v>26.93991979734807</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1092861185252974</v>
+        <v>0.1092861185253065</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2198091119423592</v>
+        <v>0.2198091119426024</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003089000000073838</v>
+        <v>0.0001842000000067401</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.5785481301934</v>
       </c>
       <c r="F41" t="n">
-        <v>19.19645903592134</v>
+        <v>19.19645903591208</v>
       </c>
       <c r="G41" t="n">
-        <v>96.27134019471251</v>
+        <v>96.27134019471109</v>
       </c>
       <c r="H41" t="n">
-        <v>12.36723746695566</v>
+        <v>12.367237466948</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>46.53307733248525</v>
+        <v>46.53307733248393</v>
       </c>
       <c r="L41" t="n">
-        <v>21.74392719362546</v>
+        <v>21.74392719361348</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1194075530302771</v>
+        <v>0.1194075530304023</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1653840700033372</v>
+        <v>0.1653840700061256</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003340999999892347</v>
+        <v>0.0003071000000147706</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1822643091633721</v>
       </c>
       <c r="F42" t="n">
-        <v>19.39671868111417</v>
+        <v>19.39671868111415</v>
       </c>
       <c r="G42" t="n">
-        <v>82.32914342138464</v>
+        <v>82.32914342138845</v>
       </c>
       <c r="H42" t="n">
-        <v>3.09685022227296</v>
+        <v>3.096850222272867</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2630,13 +2630,13 @@
         <v>15.88109103456154</v>
       </c>
       <c r="L42" t="n">
-        <v>17.96188200476978</v>
+        <v>17.96188200476949</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09476939217886682</v>
+        <v>0.09476939217886841</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7919299557167909</v>
+        <v>0.7919299557169746</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003133999999960224</v>
+        <v>0.0003176000000166823</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.08121369692019792</v>
       </c>
       <c r="F43" t="n">
-        <v>19.3393093293453</v>
+        <v>19.33930932934533</v>
       </c>
       <c r="G43" t="n">
-        <v>50.53338056452814</v>
+        <v>50.53338056452833</v>
       </c>
       <c r="H43" t="n">
-        <v>2.831421511891181</v>
+        <v>2.831421511891178</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2682,13 +2682,13 @@
         <v>11.43929125633713</v>
       </c>
       <c r="L43" t="n">
-        <v>19.26530387809985</v>
+        <v>19.26530387809987</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0939776469712464</v>
+        <v>0.09397764697124629</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8122456505973992</v>
+        <v>0.8122456505974041</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002999000000016849</v>
+        <v>0.0002575000000035743</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.8509857540967</v>
       </c>
       <c r="F44" t="n">
-        <v>18.81360844270889</v>
+        <v>18.81360844271316</v>
       </c>
       <c r="G44" t="n">
-        <v>66.75555953065781</v>
+        <v>66.75555953065896</v>
       </c>
       <c r="H44" t="n">
-        <v>13.54365240178437</v>
+        <v>13.54365240178832</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>35.3759263624689</v>
+        <v>35.37592636246944</v>
       </c>
       <c r="L44" t="n">
-        <v>27.73125168786035</v>
+        <v>27.7312516878677</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09641852002040681</v>
+        <v>0.09641852002035578</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2977113390603286</v>
+        <v>0.2977113390590574</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0008850999999907572</v>
+        <v>0.0002158000000065385</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9227800223966</v>
       </c>
       <c r="F45" t="n">
-        <v>18.79904961860563</v>
+        <v>18.79904961860568</v>
       </c>
       <c r="G45" t="n">
-        <v>19.66807953607342</v>
+        <v>19.66807953607347</v>
       </c>
       <c r="H45" t="n">
-        <v>9.932901976269656</v>
+        <v>9.932901976269672</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>10.65620725245947</v>
+        <v>10.65620725245948</v>
       </c>
       <c r="L45" t="n">
-        <v>27.88768774636899</v>
+        <v>27.88768774636905</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09374486184323408</v>
+        <v>0.09374486184323358</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2535784442945117</v>
+        <v>0.2535784442945034</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003166000000049962</v>
+        <v>0.0002422999999964759</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.2251844151767598</v>
       </c>
       <c r="F46" t="n">
-        <v>19.70122185025229</v>
+        <v>19.70122185025257</v>
       </c>
       <c r="G46" t="n">
-        <v>158.3093834120504</v>
+        <v>158.3093834120506</v>
       </c>
       <c r="H46" t="n">
-        <v>4.703004452439185</v>
+        <v>4.703004452439344</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>15.72446909983308</v>
+        <v>15.72446909983318</v>
       </c>
       <c r="L46" t="n">
-        <v>12.30106177407914</v>
+        <v>12.30106177407924</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1004967119406604</v>
+        <v>0.1004967119406566</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6669233854465109</v>
+        <v>0.6669233854465706</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0002201999999726922</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9920875681452</v>
       </c>
       <c r="F47" t="n">
-        <v>19.61131793656939</v>
+        <v>19.61131793656921</v>
       </c>
       <c r="G47" t="n">
         <v>178.4531495022131</v>
       </c>
       <c r="H47" t="n">
-        <v>9.476513727429433</v>
+        <v>9.476513727429269</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>14.68504963022613</v>
+        <v>14.68504963022597</v>
       </c>
       <c r="L47" t="n">
-        <v>5.817311532754036</v>
+        <v>5.817311532754053</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08928297879012352</v>
+        <v>0.08928297879012759</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1772207303555097</v>
+        <v>0.1772207303555829</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003109999999963975</v>
+        <v>0.0002273000000059255</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8245372480388</v>
       </c>
       <c r="F48" t="n">
-        <v>19.74283340139068</v>
+        <v>19.74283340139072</v>
       </c>
       <c r="G48" t="n">
-        <v>140.2198114508825</v>
+        <v>140.2198114508824</v>
       </c>
       <c r="H48" t="n">
-        <v>10.46614620013966</v>
+        <v>10.4661462001397</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>50.7431860250549</v>
+        <v>50.74318602505491</v>
       </c>
       <c r="L48" t="n">
-        <v>11.81173888718982</v>
+        <v>11.81173888718986</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1003418396908734</v>
+        <v>0.100341839690873</v>
       </c>
       <c r="N48" t="n">
-        <v>0.08614569558495176</v>
+        <v>0.08614569558493915</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003274000000033084</v>
+        <v>0.0002045999999893411</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.2544028427298431</v>
       </c>
       <c r="F49" t="n">
-        <v>19.17129961642292</v>
+        <v>19.17129961642335</v>
       </c>
       <c r="G49" t="n">
-        <v>20.8116504186242</v>
+        <v>20.81165041862448</v>
       </c>
       <c r="H49" t="n">
-        <v>11.99939900933144</v>
+        <v>11.99939900933173</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>11.98504966862789</v>
+        <v>11.98504966862797</v>
       </c>
       <c r="L49" t="n">
-        <v>30.68336527784015</v>
+        <v>30.68336527784091</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09933859854085604</v>
+        <v>0.09933859854085221</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7116873347255799</v>
+        <v>0.7116873347254782</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0001897000000212756</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.2980893959785312</v>
       </c>
       <c r="F50" t="n">
-        <v>20.29205150664673</v>
+        <v>20.29205150664665</v>
       </c>
       <c r="G50" t="n">
-        <v>1.757239836522258</v>
+        <v>1.757239836522232</v>
       </c>
       <c r="H50" t="n">
-        <v>9.640824842607334</v>
+        <v>9.640824842607413</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3046,13 +3046,13 @@
         <v>3.19233261119156</v>
       </c>
       <c r="L50" t="n">
-        <v>29.28440639596046</v>
+        <v>29.28440639596047</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1057762434772939</v>
+        <v>0.1057762434772942</v>
       </c>
       <c r="N50" t="n">
-        <v>1.080120632765335</v>
+        <v>1.08012063276532</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003091999999895734</v>
+        <v>0.0002397999999743661</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.312947723461975</v>
       </c>
       <c r="F51" t="n">
-        <v>18.99394688243385</v>
+        <v>18.99394688243493</v>
       </c>
       <c r="G51" t="n">
-        <v>60.61718132953836</v>
+        <v>60.61718132953609</v>
       </c>
       <c r="H51" t="n">
-        <v>4.583002036372856</v>
+        <v>4.583002036373542</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>17.64143742423645</v>
+        <v>17.64143742423667</v>
       </c>
       <c r="L51" t="n">
-        <v>20.01700458527002</v>
+        <v>20.01700458527181</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09485499006840323</v>
+        <v>0.09485499006838986</v>
       </c>
       <c r="N51" t="n">
-        <v>1.003606744856498</v>
+        <v>1.003606744855967</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003352000000091948</v>
+        <v>0.0002332000000251355</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.4681056326050967</v>
       </c>
       <c r="F52" t="n">
-        <v>18.65407430352196</v>
+        <v>18.65407430352247</v>
       </c>
       <c r="G52" t="n">
-        <v>101.0473151030257</v>
+        <v>101.0473151030233</v>
       </c>
       <c r="H52" t="n">
-        <v>4.648556897264373</v>
+        <v>4.648556897264623</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>24.42502842748171</v>
+        <v>24.42502842748181</v>
       </c>
       <c r="L52" t="n">
-        <v>16.43946477434712</v>
+        <v>16.43946477434788</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1143749356435815</v>
+        <v>0.1143749356435725</v>
       </c>
       <c r="N52" t="n">
-        <v>1.091042663485707</v>
+        <v>1.091042663485444</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002979000000067344</v>
+        <v>0.0002110000000072887</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.08715095200459153</v>
       </c>
       <c r="F53" t="n">
-        <v>19.28600854217045</v>
+        <v>19.28600854217069</v>
       </c>
       <c r="G53" t="n">
-        <v>125.5606362813117</v>
+        <v>125.5606362813122</v>
       </c>
       <c r="H53" t="n">
-        <v>3.339187610232073</v>
+        <v>3.339187610232162</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>17.27565736422464</v>
+        <v>17.27565736422471</v>
       </c>
       <c r="L53" t="n">
-        <v>15.0167302595994</v>
+        <v>15.01673025959956</v>
       </c>
       <c r="M53" t="n">
-        <v>0.09194610144712734</v>
+        <v>0.09194610144712489</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3898205157617513</v>
+        <v>0.389820515761663</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003089000000073838</v>
+        <v>0.0003456000000028325</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8441572478157</v>
       </c>
       <c r="F54" t="n">
-        <v>19.64732308410928</v>
+        <v>19.6473230841087</v>
       </c>
       <c r="G54" t="n">
-        <v>141.112844139584</v>
+        <v>141.1128441395812</v>
       </c>
       <c r="H54" t="n">
-        <v>2.930809429636112</v>
+        <v>2.930809429635811</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>13.09530559622048</v>
+        <v>13.0953055962203</v>
       </c>
       <c r="L54" t="n">
-        <v>14.6749633342197</v>
+        <v>14.67496333421949</v>
       </c>
       <c r="M54" t="n">
-        <v>0.08677124479344375</v>
+        <v>0.08677124479344805</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5084936817833691</v>
+        <v>0.5084936817836917</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003456999999968957</v>
+        <v>0.0002580999999963751</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9382405399448</v>
       </c>
       <c r="F55" t="n">
-        <v>19.3890538583562</v>
+        <v>19.38905385835541</v>
       </c>
       <c r="G55" t="n">
-        <v>152.4545010593299</v>
+        <v>152.4545010593306</v>
       </c>
       <c r="H55" t="n">
-        <v>9.35780735056073</v>
+        <v>9.357807350560273</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>42.9386654370196</v>
+        <v>42.93866543701941</v>
       </c>
       <c r="L55" t="n">
-        <v>9.310728040739489</v>
+        <v>9.310728040738958</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1058813018168281</v>
+        <v>0.1058813018168389</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1957583444881548</v>
+        <v>0.1957583444884328</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003084000000086462</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.5556632233838706</v>
       </c>
       <c r="F56" t="n">
-        <v>18.32322606987005</v>
+        <v>18.32322606987124</v>
       </c>
       <c r="G56" t="n">
-        <v>84.62503957410347</v>
+        <v>84.62503957410328</v>
       </c>
       <c r="H56" t="n">
-        <v>5.570851613784598</v>
+        <v>5.570851613785201</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>26.10767738908969</v>
+        <v>26.10767738908997</v>
       </c>
       <c r="L56" t="n">
-        <v>18.1879512551124</v>
+        <v>18.18795125511387</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1148047616295874</v>
+        <v>0.1148047616295711</v>
       </c>
       <c r="N56" t="n">
-        <v>1.189769022671984</v>
+        <v>1.189769022671591</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003053000000079464</v>
+        <v>0.000185900000019501</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.4871193343902016</v>
       </c>
       <c r="F57" t="n">
-        <v>19.60754567106707</v>
+        <v>19.60754567106729</v>
       </c>
       <c r="G57" t="n">
-        <v>17.68374568556854</v>
+        <v>17.68374568556872</v>
       </c>
       <c r="H57" t="n">
-        <v>10.53968583655845</v>
+        <v>10.53968583655854</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>10.11173000573812</v>
+        <v>10.11173000573814</v>
       </c>
       <c r="L57" t="n">
-        <v>29.49866338403269</v>
+        <v>29.49866338403301</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1129195756037429</v>
+        <v>0.1129195756037415</v>
       </c>
       <c r="N57" t="n">
-        <v>1.035657457904677</v>
+        <v>1.035657457904643</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0004842999999965514</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.3112929526507688</v>
       </c>
       <c r="F58" t="n">
-        <v>19.96418329431645</v>
+        <v>19.96418329431658</v>
       </c>
       <c r="G58" t="n">
-        <v>180.1591362818485</v>
+        <v>180.1591362818483</v>
       </c>
       <c r="H58" t="n">
-        <v>8.129159103743484</v>
+        <v>8.129159103743488</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>9.362422597289417</v>
+        <v>9.362422597289505</v>
       </c>
       <c r="L58" t="n">
-        <v>7.695078491601667</v>
+        <v>7.695078491601794</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1254284060682821</v>
+        <v>0.1254284060682748</v>
       </c>
       <c r="N58" t="n">
-        <v>0.9024389273471416</v>
+        <v>0.9024389273470934</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003216000000065833</v>
+        <v>0.0001851000000101521</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.03931564720407376</v>
       </c>
       <c r="F59" t="n">
-        <v>19.09066300065614</v>
+        <v>19.09066300065594</v>
       </c>
       <c r="G59" t="n">
-        <v>14.51914072603773</v>
+        <v>14.51914072603748</v>
       </c>
       <c r="H59" t="n">
-        <v>5.362054128496712</v>
+        <v>5.362054128496622</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>7.022586774354323</v>
+        <v>7.022586774354272</v>
       </c>
       <c r="L59" t="n">
-        <v>22.87487612829105</v>
+        <v>22.87487612829074</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1032732564989219</v>
+        <v>0.1032732564989243</v>
       </c>
       <c r="N59" t="n">
-        <v>0.3477262767025721</v>
+        <v>0.3477262767026448</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0002458000000160609</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.228055843852356</v>
       </c>
       <c r="F60" t="n">
-        <v>18.51989085114643</v>
+        <v>18.5198908511441</v>
       </c>
       <c r="G60" t="n">
-        <v>67.20682652233002</v>
+        <v>67.20682652233019</v>
       </c>
       <c r="H60" t="n">
-        <v>7.146334873034577</v>
+        <v>7.146334873033115</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3563,16 +3563,16 @@
         <v>23.90445332822715</v>
       </c>
       <c r="K60" t="n">
-        <v>25.45129364180262</v>
+        <v>25.4512936418022</v>
       </c>
       <c r="L60" t="n">
-        <v>21.29198662281787</v>
+        <v>21.29198662281444</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09346871535161907</v>
+        <v>0.09346871535164432</v>
       </c>
       <c r="N60" t="n">
-        <v>0.6637579635298361</v>
+        <v>0.663757963530621</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003086999999908357</v>
+        <v>0.0001893999999822427</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.5007850564184159</v>
       </c>
       <c r="F61" t="n">
-        <v>19.62990346331112</v>
+        <v>19.62990346331091</v>
       </c>
       <c r="G61" t="n">
-        <v>175.7887449121083</v>
+        <v>175.7887449121079</v>
       </c>
       <c r="H61" t="n">
-        <v>6.449037238288987</v>
+        <v>6.449037238288637</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>11.61397350417182</v>
+        <v>11.61397350417177</v>
       </c>
       <c r="L61" t="n">
-        <v>9.489119347875159</v>
+        <v>9.489119347875373</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1399818631130475</v>
+        <v>0.1399818631130494</v>
       </c>
       <c r="N61" t="n">
-        <v>1.560893122285089</v>
+        <v>1.560893122284882</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0006593000000094662</v>
+        <v>0.0001861000000076274</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.2765312979639231</v>
       </c>
       <c r="F62" t="n">
-        <v>19.35941802984286</v>
+        <v>19.35941802984249</v>
       </c>
       <c r="G62" t="n">
-        <v>63.29170423200058</v>
+        <v>63.29170423200579</v>
       </c>
       <c r="H62" t="n">
-        <v>4.011434344829079</v>
+        <v>4.011434344828596</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>16.39881801744447</v>
+        <v>16.39881801744442</v>
       </c>
       <c r="L62" t="n">
-        <v>19.70807766417171</v>
+        <v>19.70807766417064</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1104545707449053</v>
+        <v>0.1104545707449139</v>
       </c>
       <c r="N62" t="n">
-        <v>1.032334930724552</v>
+        <v>1.032334930725008</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000500500000001125</v>
+        <v>0.0001852000000042153</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.129448665467937</v>
       </c>
       <c r="F63" t="n">
-        <v>19.46861852802915</v>
+        <v>19.46861852802933</v>
       </c>
       <c r="G63" t="n">
-        <v>152.4133309165286</v>
+        <v>152.4133309165284</v>
       </c>
       <c r="H63" t="n">
-        <v>5.201148326081707</v>
+        <v>5.201148326081777</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>19.93055745448303</v>
+        <v>19.9305574544831</v>
       </c>
       <c r="L63" t="n">
-        <v>12.04161730842407</v>
+        <v>12.0416173084242</v>
       </c>
       <c r="M63" t="n">
-        <v>0.09900292154108742</v>
+        <v>0.09900292154108464</v>
       </c>
       <c r="N63" t="n">
-        <v>0.2620860232597786</v>
+        <v>0.2620860232597673</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0006492999999920812</v>
+        <v>0.0001863000000241755</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.003697627891110895</v>
       </c>
       <c r="F64" t="n">
-        <v>19.62419200505238</v>
+        <v>19.62419200505224</v>
       </c>
       <c r="G64" t="n">
-        <v>5.711220962419871</v>
+        <v>5.711220962419756</v>
       </c>
       <c r="H64" t="n">
-        <v>7.98231941128416</v>
+        <v>7.982319411284334</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3774,13 +3774,13 @@
         <v>4.577835036261996</v>
       </c>
       <c r="L64" t="n">
-        <v>26.62399976987653</v>
+        <v>26.6239997698766</v>
       </c>
       <c r="M64" t="n">
-        <v>0.08408809727742961</v>
+        <v>0.08408809727742965</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3738432597120468</v>
+        <v>0.3738432597119962</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0005524999999977354</v>
+        <v>0.0002445000000079744</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.6416935960554256</v>
       </c>
       <c r="F65" t="n">
-        <v>17.9793423520409</v>
+        <v>17.97934235203913</v>
       </c>
       <c r="G65" t="n">
-        <v>109.7925879951707</v>
+        <v>109.7925879951712</v>
       </c>
       <c r="H65" t="n">
-        <v>6.13200983621834</v>
+        <v>6.13200983621742</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>32.80396760740153</v>
+        <v>32.80396760740107</v>
       </c>
       <c r="L65" t="n">
-        <v>15.31199217141479</v>
+        <v>15.31199217141299</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1323058394429112</v>
+        <v>0.1323058394429432</v>
       </c>
       <c r="N65" t="n">
-        <v>1.187009322018882</v>
+        <v>1.187009322019466</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0005024999999960755</v>
+        <v>0.0001992999999913536</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.6699031182305</v>
       </c>
       <c r="F66" t="n">
-        <v>19.1017999449493</v>
+        <v>19.10179994494886</v>
       </c>
       <c r="G66" t="n">
-        <v>65.46847188217161</v>
+        <v>65.4684718821707</v>
       </c>
       <c r="H66" t="n">
-        <v>9.877930946465185</v>
+        <v>9.877930946465028</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>28.95504113275048</v>
+        <v>28.95504113275036</v>
       </c>
       <c r="L66" t="n">
-        <v>24.46472225110426</v>
+        <v>24.46472225110383</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1204762069184392</v>
+        <v>0.1204762069184434</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1493422027974722</v>
+        <v>0.1493422027975123</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003456000000028325</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.2500994469398075</v>
       </c>
       <c r="F67" t="n">
-        <v>19.59722132743234</v>
+        <v>19.59722132743199</v>
       </c>
       <c r="G67" t="n">
-        <v>52.94964051639211</v>
+        <v>52.94964051638847</v>
       </c>
       <c r="H67" t="n">
-        <v>2.122523038582051</v>
+        <v>2.122523038582089</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>10.0721592205945</v>
+        <v>10.07215922059443</v>
       </c>
       <c r="L67" t="n">
-        <v>18.80511822814357</v>
+        <v>18.80511822814337</v>
       </c>
       <c r="M67" t="n">
-        <v>0.09793615787102274</v>
+        <v>0.09793615787102558</v>
       </c>
       <c r="N67" t="n">
-        <v>1.49704432449594</v>
+        <v>1.497044324495858</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003444000000030201</v>
+        <v>0.0002131000000247241</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.5753156907807</v>
       </c>
       <c r="F68" t="n">
-        <v>18.40991015154989</v>
+        <v>18.40991015154981</v>
       </c>
       <c r="G68" t="n">
-        <v>21.9120493980279</v>
+        <v>21.91204939802768</v>
       </c>
       <c r="H68" t="n">
-        <v>6.077397158252058</v>
+        <v>6.07739715825209</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>9.45177307391965</v>
+        <v>9.451773073919625</v>
       </c>
       <c r="L68" t="n">
-        <v>22.86953787727006</v>
+        <v>22.86953787727002</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1095416572132195</v>
+        <v>0.1095416572132202</v>
       </c>
       <c r="N68" t="n">
-        <v>0.9904713420100354</v>
+        <v>0.990471342010063</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.001753500000006625</v>
+        <v>0.0001976000000070144</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.6614433543339</v>
       </c>
       <c r="F69" t="n">
-        <v>19.13667742665242</v>
+        <v>19.13667742665279</v>
       </c>
       <c r="G69" t="n">
-        <v>96.47160983713108</v>
+        <v>96.47160983713083</v>
       </c>
       <c r="H69" t="n">
-        <v>12.94546778568506</v>
+        <v>12.94546778568543</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>48.15626801124583</v>
+        <v>48.15626801124582</v>
       </c>
       <c r="L69" t="n">
-        <v>22.13916736019582</v>
+        <v>22.13916736019641</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1114050264097239</v>
+        <v>0.1114050264097182</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2046605525564946</v>
+        <v>0.2046605525563895</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0006238999999936823</v>
+        <v>0.0002608000000066113</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.2833429093115037</v>
       </c>
       <c r="F70" t="n">
-        <v>19.50798127516333</v>
+        <v>19.50798127516308</v>
       </c>
       <c r="G70" t="n">
-        <v>69.51659870560239</v>
+        <v>69.51659870559291</v>
       </c>
       <c r="H70" t="n">
-        <v>2.097592397594572</v>
+        <v>2.097592397594725</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>11.52814498632834</v>
+        <v>11.52814498632829</v>
       </c>
       <c r="L70" t="n">
-        <v>18.13811448642455</v>
+        <v>18.13811448642475</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1046843433328814</v>
+        <v>0.1046843433328818</v>
       </c>
       <c r="N70" t="n">
-        <v>1.861667337458123</v>
+        <v>1.861667337457776</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003618000000074062</v>
+        <v>0.0001956999999777054</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.7253478704356</v>
       </c>
       <c r="F71" t="n">
-        <v>18.47324002086509</v>
+        <v>18.47324002086268</v>
       </c>
       <c r="G71" t="n">
-        <v>51.36191524626902</v>
+        <v>51.36191524626768</v>
       </c>
       <c r="H71" t="n">
-        <v>12.23973707941953</v>
+        <v>12.23973707941762</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>26.63956824222791</v>
+        <v>26.63956824222753</v>
       </c>
       <c r="L71" t="n">
-        <v>27.99998370178566</v>
+        <v>27.99998370178157</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1102940479596559</v>
+        <v>0.1102940479596848</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2847531729229117</v>
+        <v>0.284753172923651</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0004095000000035043</v>
+        <v>0.0001919999999984157</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.7447007775094</v>
       </c>
       <c r="F72" t="n">
-        <v>20.50189617614259</v>
+        <v>20.50189617613533</v>
       </c>
       <c r="G72" t="n">
-        <v>165.7814544996772</v>
+        <v>165.7814544996808</v>
       </c>
       <c r="H72" t="n">
-        <v>13.8338938539633</v>
+        <v>13.83389385395751</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>70.82484024324579</v>
+        <v>70.82484024324432</v>
       </c>
       <c r="L72" t="n">
-        <v>5.459476359114614</v>
+        <v>5.459476359111813</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1042817988533546</v>
+        <v>0.1042817988534503</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3185739792257177</v>
+        <v>0.3185739792240058</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0005345000000005484</v>
+        <v>0.0001838999999961288</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.1291809449189355</v>
       </c>
       <c r="F73" t="n">
-        <v>19.29990968809961</v>
+        <v>19.29990968810012</v>
       </c>
       <c r="G73" t="n">
-        <v>35.31868108318718</v>
+        <v>35.3186810831881</v>
       </c>
       <c r="H73" t="n">
-        <v>6.334714318906898</v>
+        <v>6.334714318907009</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>13.77003414861509</v>
+        <v>13.77003414861519</v>
       </c>
       <c r="L73" t="n">
-        <v>23.56329889700787</v>
+        <v>23.56329889700844</v>
       </c>
       <c r="M73" t="n">
-        <v>0.09371032770867203</v>
+        <v>0.09371032770866787</v>
       </c>
       <c r="N73" t="n">
-        <v>0.6630646161002346</v>
+        <v>0.6630646161001557</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0005469000000033475</v>
+        <v>0.0001927000000137014</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9044363502803</v>
       </c>
       <c r="F74" t="n">
-        <v>18.87562702067037</v>
+        <v>18.87562702067038</v>
       </c>
       <c r="G74" t="n">
-        <v>18.38567287101183</v>
+        <v>18.38567287101173</v>
       </c>
       <c r="H74" t="n">
-        <v>10.89770428284685</v>
+        <v>10.897704282847</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4291,16 +4291,16 @@
         <v>30.60511931178456</v>
       </c>
       <c r="K74" t="n">
-        <v>10.40377128484806</v>
+        <v>10.40377128484807</v>
       </c>
       <c r="L74" t="n">
-        <v>29.14816212940278</v>
+        <v>29.14816212940298</v>
       </c>
       <c r="M74" t="n">
-        <v>0.09689447542758815</v>
+        <v>0.096894475427587</v>
       </c>
       <c r="N74" t="n">
-        <v>0.204045185019608</v>
+        <v>0.2040451850195576</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0005721999999934724</v>
+        <v>0.0003093999999919106</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.826956084607</v>
       </c>
       <c r="F75" t="n">
-        <v>19.71174898763211</v>
+        <v>19.71174898762847</v>
       </c>
       <c r="G75" t="n">
-        <v>114.3733857051354</v>
+        <v>114.3733857051364</v>
       </c>
       <c r="H75" t="n">
-        <v>9.385797265134496</v>
+        <v>9.385797265132124</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>42.41038895342619</v>
+        <v>42.41038895342555</v>
       </c>
       <c r="L75" t="n">
-        <v>16.8586304298412</v>
+        <v>16.85863042983746</v>
       </c>
       <c r="M75" t="n">
-        <v>0.08817484277977269</v>
+        <v>0.08817484277980751</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06995115150664476</v>
+        <v>0.06995115150777106</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003528000000017073</v>
+        <v>0.0001918000000102893</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8174963518577</v>
       </c>
       <c r="F76" t="n">
-        <v>18.80446976221693</v>
+        <v>18.80446976221652</v>
       </c>
       <c r="G76" t="n">
-        <v>35.43879400787789</v>
+        <v>35.43879400787809</v>
       </c>
       <c r="H76" t="n">
-        <v>11.92891383218591</v>
+        <v>11.92891383218533</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>18.66999501181789</v>
+        <v>18.66999501181785</v>
       </c>
       <c r="L76" t="n">
-        <v>29.39766423444181</v>
+        <v>29.39766423444074</v>
       </c>
       <c r="M76" t="n">
-        <v>0.09046019595176374</v>
+        <v>0.09046019595177039</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2465064807121446</v>
+        <v>0.2465064807123281</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0005637999999947851</v>
+        <v>0.0001844999999889296</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.2128506401928187</v>
       </c>
       <c r="F77" t="n">
-        <v>19.43705138934937</v>
+        <v>19.43705138934999</v>
       </c>
       <c r="G77" t="n">
-        <v>115.9720494139249</v>
+        <v>115.9720494139213</v>
       </c>
       <c r="H77" t="n">
-        <v>3.54677928146186</v>
+        <v>3.546779281462034</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>18.72203533032952</v>
+        <v>18.72203533032969</v>
       </c>
       <c r="L77" t="n">
-        <v>15.79227233918342</v>
+        <v>15.79227233918425</v>
       </c>
       <c r="M77" t="n">
-        <v>0.09791104244462628</v>
+        <v>0.09791104244461715</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6914105533892412</v>
+        <v>0.6914105533889214</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0004758999999978641</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.7179096067844</v>
       </c>
       <c r="F78" t="n">
-        <v>18.80338494112782</v>
+        <v>18.80338494112647</v>
       </c>
       <c r="G78" t="n">
-        <v>54.52689552297631</v>
+        <v>54.52689552297618</v>
       </c>
       <c r="H78" t="n">
-        <v>12.46159249513634</v>
+        <v>12.46159249513504</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>28.06334677705204</v>
+        <v>28.06334677705187</v>
       </c>
       <c r="L78" t="n">
-        <v>28.17777669825584</v>
+        <v>28.17777669825327</v>
       </c>
       <c r="M78" t="n">
-        <v>0.09962196390558005</v>
+        <v>0.0996219639055988</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2079015283085375</v>
+        <v>0.2079015283089812</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0005086999999974751</v>
+        <v>0.0001871000000051026</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9326665443774</v>
       </c>
       <c r="F79" t="n">
-        <v>19.66993992621653</v>
+        <v>19.66993992621517</v>
       </c>
       <c r="G79" t="n">
-        <v>165.253259595499</v>
+        <v>165.2532595955002</v>
       </c>
       <c r="H79" t="n">
-        <v>10.45790341309313</v>
+        <v>10.45790341309231</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>41.44226871435904</v>
+        <v>41.44226871435853</v>
       </c>
       <c r="L79" t="n">
-        <v>6.559903447410744</v>
+        <v>6.559903447410066</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09411699788807459</v>
+        <v>0.09411699788809452</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1286486897996193</v>
+        <v>0.1286486898000809</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003702000000060934</v>
+        <v>0.0002355999999963387</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9633861588326</v>
       </c>
       <c r="F80" t="n">
-        <v>19.38628028426282</v>
+        <v>19.38628028426323</v>
       </c>
       <c r="G80" t="n">
-        <v>8.535467541330311</v>
+        <v>8.535467541330666</v>
       </c>
       <c r="H80" t="n">
-        <v>9.886590939030357</v>
+        <v>9.886590939030324</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4603,16 +4603,16 @@
         <v>30.80205203138767</v>
       </c>
       <c r="K80" t="n">
-        <v>5.847262624599293</v>
+        <v>5.847262624599357</v>
       </c>
       <c r="L80" t="n">
-        <v>28.65149383791782</v>
+        <v>28.65149383791819</v>
       </c>
       <c r="M80" t="n">
-        <v>0.09640436724012917</v>
+        <v>0.09640436724012635</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4325380481971904</v>
+        <v>0.432538048197155</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0004251000000010663</v>
+        <v>0.0001930999999899541</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.9949076462310189</v>
       </c>
       <c r="F81" t="n">
-        <v>17.02227630102377</v>
+        <v>17.02227630102294</v>
       </c>
       <c r="G81" t="n">
-        <v>102.3497283859818</v>
+        <v>102.3497283859822</v>
       </c>
       <c r="H81" t="n">
-        <v>5.882430126496252</v>
+        <v>5.882430126495795</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>32.96371391567878</v>
+        <v>32.96371391567857</v>
       </c>
       <c r="L81" t="n">
-        <v>15.36753638275116</v>
+        <v>15.36753638275023</v>
       </c>
       <c r="M81" t="n">
-        <v>0.200348765780033</v>
+        <v>0.2003487657800559</v>
       </c>
       <c r="N81" t="n">
-        <v>1.681149803134298</v>
+        <v>1.681149803134563</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0004571000000055392</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.4300441191555</v>
       </c>
       <c r="F82" t="n">
-        <v>19.61914658579257</v>
+        <v>19.6191465857865</v>
       </c>
       <c r="G82" t="n">
-        <v>91.17626669988327</v>
+        <v>91.17626669988199</v>
       </c>
       <c r="H82" t="n">
-        <v>11.70250558017488</v>
+        <v>11.70250558017022</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>41.93633771925926</v>
+        <v>41.93633771925837</v>
       </c>
       <c r="L82" t="n">
-        <v>22.46781501225561</v>
+        <v>22.46781501224773</v>
       </c>
       <c r="M82" t="n">
-        <v>0.1214780621792818</v>
+        <v>0.1214780621793631</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1805474721715119</v>
+        <v>0.1805474721701482</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003504999999961456</v>
+        <v>0.0003872000000058051</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.4079701026656091</v>
       </c>
       <c r="F83" t="n">
-        <v>19.06120480324894</v>
+        <v>19.06120480324768</v>
       </c>
       <c r="G83" t="n">
-        <v>71.53044404610787</v>
+        <v>71.53044404610603</v>
       </c>
       <c r="H83" t="n">
-        <v>5.609851300232038</v>
+        <v>5.609851300231558</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>22.49054609634078</v>
+        <v>22.49054609634049</v>
       </c>
       <c r="L83" t="n">
-        <v>20.10623146112931</v>
+        <v>20.10623146112792</v>
       </c>
       <c r="M83" t="n">
-        <v>0.105712700687657</v>
+        <v>0.1057127006876705</v>
       </c>
       <c r="N83" t="n">
-        <v>0.9554636416420388</v>
+        <v>0.9554636416423342</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0005541000000022223</v>
+        <v>0.0002040999999906035</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.7478048791732</v>
       </c>
       <c r="F84" t="n">
-        <v>18.80221648646888</v>
+        <v>18.80221648646967</v>
       </c>
       <c r="G84" t="n">
-        <v>47.48223601330891</v>
+        <v>47.48223601330933</v>
       </c>
       <c r="H84" t="n">
-        <v>10.56327672572599</v>
+        <v>10.56327672572657</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>22.85074379603873</v>
+        <v>22.85074379603886</v>
       </c>
       <c r="L84" t="n">
-        <v>26.86031299202456</v>
+        <v>26.86031299202587</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1086306445677381</v>
+        <v>0.1086306445677279</v>
       </c>
       <c r="N84" t="n">
-        <v>0.180357296517729</v>
+        <v>0.1803572965174788</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0005330999999983987</v>
+        <v>0.0002396000000146614</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.7452061341889</v>
       </c>
       <c r="F85" t="n">
-        <v>18.6736353555915</v>
+        <v>18.6736353555913</v>
       </c>
       <c r="G85" t="n">
-        <v>44.4915013752108</v>
+        <v>44.4915013752105</v>
       </c>
       <c r="H85" t="n">
-        <v>10.93637602047949</v>
+        <v>10.93637602047943</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>22.0283045065614</v>
+        <v>22.02830450656136</v>
       </c>
       <c r="L85" t="n">
-        <v>27.42064592587165</v>
+        <v>27.42064592587142</v>
       </c>
       <c r="M85" t="n">
-        <v>0.10210350463587</v>
+        <v>0.1021035046358716</v>
       </c>
       <c r="N85" t="n">
-        <v>0.227571068554739</v>
+        <v>0.2275710685547883</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0004498000000126012</v>
+        <v>0.0001832999999749063</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.0394836605926723</v>
       </c>
       <c r="F86" t="n">
-        <v>19.20847290241377</v>
+        <v>19.2084729024137</v>
       </c>
       <c r="G86" t="n">
-        <v>7.266328235754102</v>
+        <v>7.266328235754013</v>
       </c>
       <c r="H86" t="n">
-        <v>7.068108988013442</v>
+        <v>7.068108988013809</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4915,16 +4915,16 @@
         <v>26.33679661486171</v>
       </c>
       <c r="K86" t="n">
-        <v>5.156310281037055</v>
+        <v>5.15631028103708</v>
       </c>
       <c r="L86" t="n">
-        <v>25.10732324021041</v>
+        <v>25.10732324021079</v>
       </c>
       <c r="M86" t="n">
-        <v>0.1059617083480332</v>
+        <v>0.1059617083480316</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2788428679359672</v>
+        <v>0.2788428679358224</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0005088999999998123</v>
+        <v>0.0001853000000267002</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9469447836763</v>
       </c>
       <c r="F87" t="n">
-        <v>19.21104945380749</v>
+        <v>19.2110494538019</v>
       </c>
       <c r="G87" t="n">
-        <v>111.1406406125121</v>
+        <v>111.1406406125137</v>
       </c>
       <c r="H87" t="n">
-        <v>8.653887559045115</v>
+        <v>8.653887559041584</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>40.14759107461228</v>
+        <v>40.14759107461123</v>
       </c>
       <c r="L87" t="n">
-        <v>16.81004017214985</v>
+        <v>16.81004017214394</v>
       </c>
       <c r="M87" t="n">
-        <v>0.09743166375539751</v>
+        <v>0.09743166375545921</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2463587323794859</v>
+        <v>0.2463587323812422</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0005093999999985499</v>
+        <v>0.0001838999999961288</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1788857156901902</v>
       </c>
       <c r="F88" t="n">
-        <v>19.38422244281231</v>
+        <v>19.38422244281193</v>
       </c>
       <c r="G88" t="n">
-        <v>41.85351952749438</v>
+        <v>41.85351952749426</v>
       </c>
       <c r="H88" t="n">
-        <v>4.096369053334781</v>
+        <v>4.096369053334603</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>12.45130501188251</v>
+        <v>12.45130501188242</v>
       </c>
       <c r="L88" t="n">
-        <v>20.92127382401268</v>
+        <v>20.92127382401212</v>
       </c>
       <c r="M88" t="n">
-        <v>0.09871146917112386</v>
+        <v>0.09871146917112832</v>
       </c>
       <c r="N88" t="n">
-        <v>0.979387898234255</v>
+        <v>0.979387898234402</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003675000000100681</v>
+        <v>0.0001828000000045904</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.888287343744</v>
       </c>
       <c r="F89" t="n">
-        <v>18.89921009292978</v>
+        <v>18.89921009292591</v>
       </c>
       <c r="G89" t="n">
-        <v>117.8123353402993</v>
+        <v>117.8123353402999</v>
       </c>
       <c r="H89" t="n">
-        <v>13.52379924469799</v>
+        <v>13.52379924469443</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>60.64436162079261</v>
+        <v>60.64436162079219</v>
       </c>
       <c r="L89" t="n">
-        <v>17.76911802357454</v>
+        <v>17.7691180235702</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1001386895974527</v>
+        <v>0.100138689597497</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3068676922668866</v>
+        <v>0.3068676922679789</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003420999999974583</v>
+        <v>0.0002292000000068128</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9679347087545</v>
       </c>
       <c r="F90" t="n">
-        <v>19.4270430433252</v>
+        <v>19.42704304333105</v>
       </c>
       <c r="G90" t="n">
-        <v>116.4778472259693</v>
+        <v>116.477847225967</v>
       </c>
       <c r="H90" t="n">
-        <v>8.738597595972749</v>
+        <v>8.73859759597641</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>40.99158270565275</v>
+        <v>40.99158270565383</v>
       </c>
       <c r="L90" t="n">
-        <v>16.07742293555513</v>
+        <v>16.07742293556108</v>
       </c>
       <c r="M90" t="n">
-        <v>0.09454588323263767</v>
+        <v>0.09454588323257469</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1848109369528767</v>
+        <v>0.1848109369510625</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0007358000000010634</v>
+        <v>0.0002104999999801294</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.5081190079641331</v>
       </c>
       <c r="F91" t="n">
-        <v>18.62529616460648</v>
+        <v>18.62529616460408</v>
       </c>
       <c r="G91" t="n">
-        <v>102.308747983402</v>
+        <v>102.308747983406</v>
       </c>
       <c r="H91" t="n">
-        <v>4.893768977371746</v>
+        <v>4.893768977370656</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>25.6098671541159</v>
+        <v>25.60986715411532</v>
       </c>
       <c r="L91" t="n">
-        <v>16.36392223733217</v>
+        <v>16.3639222373293</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1170246943130018</v>
+        <v>0.1170246943130398</v>
       </c>
       <c r="N91" t="n">
-        <v>1.130437576130148</v>
+        <v>1.130437576131095</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0006327999999911071</v>
+        <v>0.0002174999999908778</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.06734600045980398</v>
       </c>
       <c r="F92" t="n">
-        <v>19.14826914911581</v>
+        <v>19.14826914911533</v>
       </c>
       <c r="G92" t="n">
-        <v>27.83817836454932</v>
+        <v>27.83817836454693</v>
       </c>
       <c r="H92" t="n">
-        <v>4.134587320984557</v>
+        <v>4.134587320984782</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5227,16 +5227,16 @@
         <v>22.92041397631485</v>
       </c>
       <c r="K92" t="n">
-        <v>9.52448485812406</v>
+        <v>9.524484858123971</v>
       </c>
       <c r="L92" t="n">
-        <v>21.21160573216991</v>
+        <v>21.21160573216976</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1019713665256303</v>
+        <v>0.101971366525633</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5776682460215131</v>
+        <v>0.5776682460213711</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003877999999986059</v>
+        <v>0.0001898999999809803</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1818363053204348</v>
       </c>
       <c r="F93" t="n">
-        <v>19.13579637315324</v>
+        <v>19.13579637315391</v>
       </c>
       <c r="G93" t="n">
-        <v>39.00581589824876</v>
+        <v>39.00581589824984</v>
       </c>
       <c r="H93" t="n">
-        <v>5.510264592534067</v>
+        <v>5.510264592534271</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>13.98284585569114</v>
+        <v>13.98284585569129</v>
       </c>
       <c r="L93" t="n">
-        <v>22.31900518830647</v>
+        <v>22.31900518830728</v>
       </c>
       <c r="M93" t="n">
-        <v>0.09304269210108282</v>
+        <v>0.09304269210107673</v>
       </c>
       <c r="N93" t="n">
-        <v>0.8082665642986482</v>
+        <v>0.8082665642985118</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003444000000030201</v>
+        <v>0.0002090000000123382</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9309102274653</v>
       </c>
       <c r="F94" t="n">
-        <v>19.52715781015042</v>
+        <v>19.52715781015347</v>
       </c>
       <c r="G94" t="n">
-        <v>159.5286073707668</v>
+        <v>159.5286073707653</v>
       </c>
       <c r="H94" t="n">
-        <v>12.1116912351671</v>
+        <v>12.11169123516942</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>62.12883289014894</v>
+        <v>62.12883289014992</v>
       </c>
       <c r="L94" t="n">
-        <v>7.047541900661961</v>
+        <v>7.047541900663389</v>
       </c>
       <c r="M94" t="n">
-        <v>0.08452366963202218</v>
+        <v>0.08452366963199054</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1459227682842011</v>
+        <v>0.1459227682831273</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0005392000000057351</v>
+        <v>0.0002869000000202959</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.5109405758969</v>
       </c>
       <c r="F95" t="n">
-        <v>19.74184929395111</v>
+        <v>19.74184929395708</v>
       </c>
       <c r="G95" t="n">
-        <v>106.1427635391854</v>
+        <v>106.1427635391845</v>
       </c>
       <c r="H95" t="n">
-        <v>11.09824100481122</v>
+        <v>11.09824100481571</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>45.78468081675872</v>
+        <v>45.78468081675953</v>
       </c>
       <c r="L95" t="n">
-        <v>19.24692424343241</v>
+        <v>19.24692424343937</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1071253550760237</v>
+        <v>0.1071253550759535</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1892047449108879</v>
+        <v>0.1892047449123561</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0005892000000073949</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.776964035346</v>
       </c>
       <c r="F96" t="n">
-        <v>19.58492830160663</v>
+        <v>19.58492830161632</v>
       </c>
       <c r="G96" t="n">
-        <v>127.9419757688158</v>
+        <v>127.9419757688131</v>
       </c>
       <c r="H96" t="n">
-        <v>10.07669847399817</v>
+        <v>10.07669847400479</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>48.11388500640696</v>
+        <v>48.11388500640891</v>
       </c>
       <c r="L96" t="n">
-        <v>14.27909556338704</v>
+        <v>14.27909556339544</v>
       </c>
       <c r="M96" t="n">
-        <v>0.09912606289178541</v>
+        <v>0.09912606289168442</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1396780877741664</v>
+        <v>0.1396780877711554</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0006295999999963442</v>
+        <v>0.0001958999999942534</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1992866698657448</v>
       </c>
       <c r="F97" t="n">
-        <v>19.40359291121143</v>
+        <v>19.40359291121179</v>
       </c>
       <c r="G97" t="n">
-        <v>46.18795617497442</v>
+        <v>46.18795617497773</v>
       </c>
       <c r="H97" t="n">
-        <v>4.11571112705634</v>
+        <v>4.115711127056144</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>13.36802170816981</v>
+        <v>13.36802170816988</v>
       </c>
       <c r="L97" t="n">
-        <v>20.76899023961696</v>
+        <v>20.76899023961697</v>
       </c>
       <c r="M97" t="n">
-        <v>0.09287760995082997</v>
+        <v>0.09287760995082875</v>
       </c>
       <c r="N97" t="n">
-        <v>0.878388611098782</v>
+        <v>0.8783886110989354</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.001135300000001394</v>
+        <v>0.0001863999999898169</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9790456675702</v>
       </c>
       <c r="F98" t="n">
-        <v>18.6503665714651</v>
+        <v>18.65036657146041</v>
       </c>
       <c r="G98" t="n">
-        <v>38.2208722474375</v>
+        <v>38.22087224743544</v>
       </c>
       <c r="H98" t="n">
-        <v>12.67448549899445</v>
+        <v>12.67448549899031</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>20.69948402802227</v>
+        <v>20.69948402802159</v>
       </c>
       <c r="L98" t="n">
-        <v>29.91400629328182</v>
+        <v>29.91400629327287</v>
       </c>
       <c r="M98" t="n">
-        <v>0.09505464957777862</v>
+        <v>0.09505464957783277</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4102942610996094</v>
+        <v>0.4102942611010317</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0006039000000015449</v>
+        <v>0.0001849999999876673</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.5253563253876018</v>
       </c>
       <c r="F99" t="n">
-        <v>16.1311838711015</v>
+        <v>16.13118387108834</v>
       </c>
       <c r="G99" t="n">
-        <v>153.9521302236303</v>
+        <v>153.9521302236374</v>
       </c>
       <c r="H99" t="n">
-        <v>11.09929140964076</v>
+        <v>11.09929140962909</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>77.81319098458918</v>
+        <v>77.81319098458638</v>
       </c>
       <c r="L99" t="n">
-        <v>7.332330298809401</v>
+        <v>7.332330298801546</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1178696748063565</v>
+        <v>0.117869674806652</v>
       </c>
       <c r="N99" t="n">
-        <v>1.195222191587136</v>
+        <v>1.195222191591311</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003650000000021691</v>
+        <v>0.0002431000000058248</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.8578848756203</v>
       </c>
       <c r="F100" t="n">
-        <v>19.28553000369561</v>
+        <v>19.28553000370119</v>
       </c>
       <c r="G100" t="n">
-        <v>131.0698900794025</v>
+        <v>131.0698900794</v>
       </c>
       <c r="H100" t="n">
-        <v>9.376958517393026</v>
+        <v>9.376958517396668</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>45.9991554806079</v>
+        <v>45.99915548060912</v>
       </c>
       <c r="L100" t="n">
-        <v>13.35391263789178</v>
+        <v>13.35391263789652</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1075551252687344</v>
+        <v>0.1075551252686705</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2255245749967041</v>
+        <v>0.2255245749949596</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0005609000000106334</v>
+        <v>0.0001910999999950036</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.04270765281058021</v>
       </c>
       <c r="F101" t="n">
-        <v>19.11052539716092</v>
+        <v>19.11052539716735</v>
       </c>
       <c r="G101" t="n">
-        <v>122.0372262896381</v>
+        <v>122.0372262896366</v>
       </c>
       <c r="H101" t="n">
-        <v>8.297813470935546</v>
+        <v>8.297813470939433</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>40.64621772045211</v>
+        <v>40.64621772045362</v>
       </c>
       <c r="L101" t="n">
-        <v>14.7770995153049</v>
+        <v>14.77709951531074</v>
       </c>
       <c r="M101" t="n">
-        <v>0.09267400276152692</v>
+        <v>0.09267400276145457</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3237320305610831</v>
+        <v>0.3237320305589541</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.001412000000001967</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
   </sheetData>
